--- a/attachments/DSJ_AE_Social_Technology_and_Social_Media_for_Operations.xlsx
+++ b/attachments/DSJ_AE_Social_Technology_and_Social_Media_for_Operations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liangfeiqiu\Dropbox\UF\Review\DSJ EIC\DSJ EIC\DSJ board\Finalized\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF20B91-A0BF-4DAF-91E9-3DC9386470ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B5B5E7-3A78-46D7-8291-72A098CB047C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>First Name</t>
   </si>
@@ -270,6 +270,18 @@
   </si>
   <si>
     <t>DSJ Social Technology and Social Media for Operations AEs</t>
+  </si>
+  <si>
+    <t>Jaehwuen</t>
+  </si>
+  <si>
+    <t>Jung</t>
+  </si>
+  <si>
+    <t>jaejung@temple.edu</t>
+  </si>
+  <si>
+    <t>Temple University</t>
   </si>
 </sst>
 </file>
@@ -611,7 +623,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -938,12 +950,22 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -2219,7 +2241,7 @@
   <customSheetViews>
     <customSheetView guid="{D1FEA9A8-30B6-43D6-978A-D5A1C9D7D93B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:L49" xr:uid="{2EA1E64D-F0C7-4BEA-A6DF-1E0B4390722F}"/>
+      <autoFilter ref="A1:L49" xr:uid="{BA2F02C0-D37E-4F68-9BCC-32C2D9BCB72D}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1009101244"/>
